--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997891A6-8AEF-45C5-8B6F-A1B32E56EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6795B38-572D-4A68-B028-9A5FB7C8F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="768" windowWidth="16440" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="106">
   <si>
     <t>players</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
   </si>
 </sst>
 </file>
@@ -742,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O996"/>
+  <dimension ref="A1:O1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A970" workbookViewId="0">
-      <selection activeCell="J993" sqref="J993"/>
+    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
+      <selection activeCell="G1008" sqref="G1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32020,7 +32023,7 @@
         <v>96</v>
       </c>
       <c r="K939" s="10" t="str">
-        <f t="shared" ref="K939:K996" si="27">IF(OR(OR(AND(OR(A939=B939,A939=C939,A939=D939,B939=C939,B939=D939,C939=D939),OR(A939&lt;&gt;"",D939&lt;&gt;"")),H939&gt;MAX(F939:G939),B939=C939),OR(AND(ISBLANK(A939)=FALSE,ISNA(VLOOKUP(A939,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B939,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C939,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D939)=FALSE,ISNA(VLOOKUP(D939,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A939:D939)=1,COUNTBLANK(A939:D939)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K939:K1008" si="27">IF(OR(OR(AND(OR(A939=B939,A939=C939,A939=D939,B939=C939,B939=D939,C939=D939),OR(A939&lt;&gt;"",D939&lt;&gt;"")),H939&gt;MAX(F939:G939),B939=C939),OR(AND(ISBLANK(A939)=FALSE,ISNA(VLOOKUP(A939,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B939,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C939,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D939)=FALSE,ISNA(VLOOKUP(D939,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A939:D939)=1,COUNTBLANK(A939:D939)=3))),"ERREUR","")</f>
         <v/>
       </c>
     </row>
@@ -32060,7 +32063,7 @@
         <v>14</v>
       </c>
       <c r="E941" s="1">
-        <f t="shared" ref="E941:E996" si="28">IF(F941&gt;G941,1,0)</f>
+        <f t="shared" ref="E941:E1008" si="28">IF(F941&gt;G941,1,0)</f>
         <v>1</v>
       </c>
       <c r="F941" s="5">
@@ -33616,6 +33619,342 @@
         <v>104</v>
       </c>
       <c r="K996" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="997" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B997" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C997" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E997" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F997" s="5">
+        <v>7</v>
+      </c>
+      <c r="G997" s="5">
+        <v>5</v>
+      </c>
+      <c r="H997" s="1">
+        <v>7</v>
+      </c>
+      <c r="I997" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K997" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="998" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B998" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C998" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E998" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F998" s="5">
+        <v>7</v>
+      </c>
+      <c r="G998" s="5">
+        <v>4</v>
+      </c>
+      <c r="H998" s="1">
+        <v>7</v>
+      </c>
+      <c r="I998" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K998" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="999" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B999" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C999" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E999" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F999" s="5">
+        <v>8</v>
+      </c>
+      <c r="G999" s="5">
+        <v>6</v>
+      </c>
+      <c r="H999" s="1">
+        <v>7</v>
+      </c>
+      <c r="I999" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K999" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1000" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1000" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1000" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1000" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1000" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1000" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1000" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1000" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1000" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1001" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1001" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1001" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1001" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1001" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1001" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1001" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1001" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1001" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1002" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1002" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1002" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1002" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1002" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1002" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1002" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1002" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1002" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1003" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1003" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1003" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1003" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1003" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1003" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1003" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1003" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1003" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1004" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1004" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1004" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1004" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1004" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1004" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1004" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1004" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1004" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1005" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1005" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1005" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1005" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1005" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1005" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1005" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1005" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1005" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1006" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1006" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1006" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1006" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1006" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1006" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1006" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1006" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1006" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1007" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1007" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1007" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1007" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1007" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1007" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1007" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1007" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1007" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1008" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1008" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1008" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1008" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1008" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1008" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1008" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1008" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1008" s="10" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>

--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6795B38-572D-4A68-B028-9A5FB7C8F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAE910F-9568-4572-A141-C4B376802E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="768" windowWidth="16440" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="10932" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="109">
   <si>
     <t>players</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
   </si>
 </sst>
 </file>
@@ -745,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1008"/>
+  <dimension ref="A1:O1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
-      <selection activeCell="G1008" sqref="G1008"/>
+    <sheetView tabSelected="1" topLeftCell="B1088" workbookViewId="0">
+      <selection activeCell="K1089" sqref="K1089:K1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32023,7 +32032,7 @@
         <v>96</v>
       </c>
       <c r="K939" s="10" t="str">
-        <f t="shared" ref="K939:K1008" si="27">IF(OR(OR(AND(OR(A939=B939,A939=C939,A939=D939,B939=C939,B939=D939,C939=D939),OR(A939&lt;&gt;"",D939&lt;&gt;"")),H939&gt;MAX(F939:G939),B939=C939),OR(AND(ISBLANK(A939)=FALSE,ISNA(VLOOKUP(A939,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B939,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C939,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D939)=FALSE,ISNA(VLOOKUP(D939,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A939:D939)=1,COUNTBLANK(A939:D939)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K939:K1010" si="27">IF(OR(OR(AND(OR(A939=B939,A939=C939,A939=D939,B939=C939,B939=D939,C939=D939),OR(A939&lt;&gt;"",D939&lt;&gt;"")),H939&gt;MAX(F939:G939),B939=C939),OR(AND(ISBLANK(A939)=FALSE,ISNA(VLOOKUP(A939,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B939,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C939,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D939)=FALSE,ISNA(VLOOKUP(D939,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A939:D939)=1,COUNTBLANK(A939:D939)=3))),"ERREUR","")</f>
         <v/>
       </c>
     </row>
@@ -32063,7 +32072,7 @@
         <v>14</v>
       </c>
       <c r="E941" s="1">
-        <f t="shared" ref="E941:E1008" si="28">IF(F941&gt;G941,1,0)</f>
+        <f t="shared" ref="E941:E1094" si="28">IF(F941&gt;G941,1,0)</f>
         <v>1</v>
       </c>
       <c r="F941" s="5">
@@ -33956,6 +33965,2414 @@
       </c>
       <c r="K1008" s="10" t="str">
         <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1009" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1009" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1009" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1009" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1009" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1009" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1009" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1009" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1009" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1010" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1010" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1010" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1010" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1010" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1010" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1010" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1010" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1011" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1011" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1011" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1011" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1011" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1011" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1011" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1011" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1011" s="10" t="str">
+        <f t="shared" ref="K1011:K1074" si="29">IF(OR(OR(AND(OR(A1011=B1011,A1011=C1011,A1011=D1011,B1011=C1011,B1011=D1011,C1011=D1011),OR(A1011&lt;&gt;"",D1011&lt;&gt;"")),H1011&gt;MAX(F1011:G1011),B1011=C1011),OR(AND(ISBLANK(A1011)=FALSE,ISNA(VLOOKUP(A1011,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1011,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1011,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1011)=FALSE,ISNA(VLOOKUP(D1011,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1011:D1011)=1,COUNTBLANK(A1011:D1011)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1012" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1012" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1012" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1012" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1012" s="5">
+        <v>14</v>
+      </c>
+      <c r="G1012" s="5">
+        <v>12</v>
+      </c>
+      <c r="H1012" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1012" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1012" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1013" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1013" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1013" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1013" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1013" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1013" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1013" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1013" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1013" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1014" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1014" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1014" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1014" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1014" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1014" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1014" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1014" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1014" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1015" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1015" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1015" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1015" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1015" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1015" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1015" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1015" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1015" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1016" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1016" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1016" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1016" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1016" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1016" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1016" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1016" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1016" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1017" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1017" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1017" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1017" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1017" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1017" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1017" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1017" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1017" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1018" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1018" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1018" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1018" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1018" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1018" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1018" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1018" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1018" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1019" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1019" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1019" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1019" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1019" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1019" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1019" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1019" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1019" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1020" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1020" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1020" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1020" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1020" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1020" s="5">
+        <v>0</v>
+      </c>
+      <c r="H1020" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1020" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1020" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1021" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1021" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1021" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1021" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1021" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1021" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1021" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1021" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1021" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1022" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1022" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1022" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1022" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1022" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1022" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1022" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1022" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1022" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1023" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1023" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1023" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1023" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1023" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1023" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1023" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1023" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1023" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1024" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1024" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1024" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1024" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1024" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1024" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1024" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1024" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1024" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1025" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1025" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1025" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1025" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1025" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1025" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1025" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1025" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1025" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1026" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1026" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1026" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1026" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1026" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1026" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1026" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1026" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1026" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1027" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1027" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1027" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1027" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1027" s="5">
+        <v>14</v>
+      </c>
+      <c r="G1027" s="5">
+        <v>12</v>
+      </c>
+      <c r="H1027" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1027" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1027" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1028" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1028" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1028" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1028" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1028" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1028" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1028" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1028" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1028" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1029" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1029" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1029" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1029" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1029" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1029" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1029" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1029" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1029" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1030" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1030" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1030" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1030" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1030" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1030" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1030" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1030" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1030" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1031" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1031" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1031" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1031" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1031" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1031" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1031" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1031" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1031" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1032" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1032" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1032" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1032" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1032" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1032" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1032" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1032" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1032" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1033" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1033" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1033" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1033" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1033" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1033" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1033" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1033" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1033" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1034" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1034" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1034" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1034" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1034" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1034" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1034" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1034" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1034" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1035" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1035" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1035" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1035" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1035" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1035" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1035" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1035" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1035" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1036" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1036" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1036" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1036" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1036" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1036" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1036" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1036" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1036" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1037" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1037" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1037" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1037" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1037" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1037" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1037" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1037" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1037" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1038" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1038" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1038" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1038" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1038" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1038" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1038" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1038" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1038" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1039" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1039" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1039" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1039" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1039" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1039" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1039" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1039" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1039" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1040" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1040" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1040" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1040" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1040" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1040" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1040" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1040" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1040" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1041" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1041" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1041" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1041" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1041" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1041" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1041" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1041" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1041" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1042" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1042" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1042" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1042" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1042" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1042" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1042" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1042" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1042" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1043" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1043" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1043" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1043" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1043" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1043" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1043" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1043" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1043" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1044" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1044" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1044" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1044" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1044" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1044" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1044" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1044" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1044" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1045" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1045" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1045" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1045" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1045" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1045" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1045" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1045" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1045" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1046" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1046" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1046" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1046" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1046" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1046" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1046" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1046" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1046" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1047" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1047" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1047" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1047" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1047" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1047" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1047" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1047" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1047" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1048" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1048" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1048" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1048" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1048" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1048" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1048" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1048" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1048" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1049" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1049" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1049" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1049" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1049" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1049" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1049" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1049" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1049" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1050" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1050" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1050" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1050" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1050" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1050" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1050" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1050" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1050" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1051" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1051" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1051" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1051" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1051" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1051" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1051" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1051" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1051" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1052" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1052" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1052" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1052" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1052" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1052" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1052" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1052" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1052" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1053" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1053" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1053" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1053" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1053" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1053" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1053" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1053" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1053" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1054" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1054" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1054" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1054" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1054" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1054" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1054" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1054" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1054" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1055" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1055" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1055" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1055" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1055" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1055" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1055" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1055" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1055" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1056" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1056" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1056" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1056" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1056" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1056" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1056" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1056" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1056" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1057" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1057" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1057" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1057" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1057" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1057" s="5">
+        <v>9</v>
+      </c>
+      <c r="H1057" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1057" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1057" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1058" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1058" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1058" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1058" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1058" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1058" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1058" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1058" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1058" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1059" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1059" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1059" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1059" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1059" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1059" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1059" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1059" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1059" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1060" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1060" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1060" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1060" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1060" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1060" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1060" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1060" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1060" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1061" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1061" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1061" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1061" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1061" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1061" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1061" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1061" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1061" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1062" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1062" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1062" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1062" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1062" s="5">
+        <v>10</v>
+      </c>
+      <c r="G1062" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1062" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1062" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1062" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1063" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1063" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1063" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1063" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1063" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1063" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1063" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1063" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1063" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1064" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1064" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1064" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1064" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1064" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1064" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1064" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1064" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1065" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1065" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1065" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1065" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1065" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1065" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1065" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1065" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1065" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1066" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1066" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1066" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1066" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1066" s="5">
+        <v>10</v>
+      </c>
+      <c r="G1066" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1066" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1066" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1066" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1067" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1067" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1067" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1067" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1067" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1067" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1067" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1067" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1067" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1068" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1068" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1068" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1068" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1068" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1068" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1068" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1068" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1068" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1069" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1069" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1069" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1069" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1069" s="5">
+        <v>9</v>
+      </c>
+      <c r="G1069" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1069" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1069" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1069" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1070" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1070" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1070" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1070" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1070" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1070" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1070" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1070" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1070" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1071" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1071" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1071" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1071" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1071" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1071" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1071" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1071" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1071" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1072" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1072" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1072" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1072" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1072" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1072" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1072" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1072" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1072" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1073" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1073" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1073" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1073" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1073" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1073" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1073" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1073" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1073" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1074" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1074" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1074" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1074" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1074" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1074" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1074" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1074" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1074" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1075" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1075" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1075" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1075" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1075" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1075" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1075" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1075" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1075" s="10" t="str">
+        <f t="shared" ref="K1075:K1094" si="30">IF(OR(OR(AND(OR(A1075=B1075,A1075=C1075,A1075=D1075,B1075=C1075,B1075=D1075,C1075=D1075),OR(A1075&lt;&gt;"",D1075&lt;&gt;"")),H1075&gt;MAX(F1075:G1075),B1075=C1075),OR(AND(ISBLANK(A1075)=FALSE,ISNA(VLOOKUP(A1075,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1075,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1075,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1075)=FALSE,ISNA(VLOOKUP(D1075,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1075:D1075)=1,COUNTBLANK(A1075:D1075)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1076" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1076" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1076" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1076" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1076" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1076" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1076" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1076" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1076" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1077" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1077" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1077" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1077" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1077" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1077" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1077" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1077" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1077" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1078" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1078" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1078" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1078" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1078" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1078" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1078" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1078" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1078" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1079" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1079" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1079" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1079" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1079" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1079" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1079" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1079" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1079" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1080" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1080" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1080" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1080" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1080" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1080" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1080" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1080" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1080" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1081" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1081" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1081" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1081" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1081" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1081" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1081" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1081" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1081" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1082" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1082" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1082" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1082" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1082" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1082" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1082" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1082" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1082" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1083" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1083" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1083" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1083" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1083" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1083" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1083" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1083" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1083" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1084" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1084" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1084" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1084" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1084" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1084" s="5">
+        <v>3</v>
+      </c>
+      <c r="H1084" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1084" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1084" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1085" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1085" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1085" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1085" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1085" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1085" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1085" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1085" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1085" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1086" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1086" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1086" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1086" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1086" s="5">
+        <v>7</v>
+      </c>
+      <c r="G1086" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1086" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1086" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1086" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1087" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1087" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1087" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1087" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1087" s="5">
+        <v>8</v>
+      </c>
+      <c r="G1087" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1087" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1087" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1087" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1088" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1088" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1088" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1088" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1088" s="5">
+        <v>13</v>
+      </c>
+      <c r="G1088" s="5">
+        <v>11</v>
+      </c>
+      <c r="H1088" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1088" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1088" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1089" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1089" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1089" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1089" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1089" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1089" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1089" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1089" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1089" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1090" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1090" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1090" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1090" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1090" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1090" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1090" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1090" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1090" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1091" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1091" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1091" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1091" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1091" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1091" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1091" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1091" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1091" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1092" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1092" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1092" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1092" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1092" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1092" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1092" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1092" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1092" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1093" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1093" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1093" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1093" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1093" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1093" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1093" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1093" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1093" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1094" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1094" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1094" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1094" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1094" s="5">
+        <v>15</v>
+      </c>
+      <c r="G1094" s="5">
+        <v>13</v>
+      </c>
+      <c r="H1094" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1094" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1094" s="10" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>

--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04143545-13BC-4635-8542-431F8A8C5784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EDA79-856B-421C-8DAF-B14D45CCA25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="2340" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="111">
   <si>
     <t>players</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
   </si>
 </sst>
 </file>
@@ -757,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1098"/>
+  <dimension ref="A1:O1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1088" workbookViewId="0">
-      <selection activeCell="K1098" sqref="K1098"/>
+    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
+      <selection activeCell="K1099" sqref="K1099:K1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32075,7 +32078,7 @@
         <v>14</v>
       </c>
       <c r="E941" s="1">
-        <f t="shared" ref="E941:E1098" si="28">IF(F941&gt;G941,1,0)</f>
+        <f t="shared" ref="E941:E1107" si="28">IF(F941&gt;G941,1,0)</f>
         <v>1</v>
       </c>
       <c r="F941" s="5">
@@ -35843,7 +35846,7 @@
         <v>107</v>
       </c>
       <c r="K1075" s="10" t="str">
-        <f t="shared" ref="K1075:K1098" si="30">IF(OR(OR(AND(OR(A1075=B1075,A1075=C1075,A1075=D1075,B1075=C1075,B1075=D1075,C1075=D1075),OR(A1075&lt;&gt;"",D1075&lt;&gt;"")),H1075&gt;MAX(F1075:G1075),B1075=C1075),OR(AND(ISBLANK(A1075)=FALSE,ISNA(VLOOKUP(A1075,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1075,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1075,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1075)=FALSE,ISNA(VLOOKUP(D1075,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1075:D1075)=1,COUNTBLANK(A1075:D1075)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K1075:K1107" si="30">IF(OR(OR(AND(OR(A1075=B1075,A1075=C1075,A1075=D1075,B1075=C1075,B1075=D1075,C1075=D1075),OR(A1075&lt;&gt;"",D1075&lt;&gt;"")),H1075&gt;MAX(F1075:G1075),B1075=C1075),OR(AND(ISBLANK(A1075)=FALSE,ISNA(VLOOKUP(A1075,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1075,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1075,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1075)=FALSE,ISNA(VLOOKUP(D1075,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1075:D1075)=1,COUNTBLANK(A1075:D1075)=3))),"ERREUR","")</f>
         <v/>
       </c>
     </row>
@@ -36487,6 +36490,258 @@
         <v>109</v>
       </c>
       <c r="K1098" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1099" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1099" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1099" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1099" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1099" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1099" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1099" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1099" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1099" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1100" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1100" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1100" s="5">
+        <v>9</v>
+      </c>
+      <c r="H1100" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1100" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1101" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1101" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1101" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1101" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1101" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1102" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1102" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1102" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1102" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1102" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1103" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1103" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1103" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1103" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1103" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1104" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1104" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1104" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1104" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1104" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1104" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1105" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1105" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1105" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1105" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1105" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1105" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1106" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1106" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1106" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1106" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1106" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1106" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1107" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1107" s="1">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F1107" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1107" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1107" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1107" s="10" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>

--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5125660-53DB-4B04-9007-41B901222719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389572EC-E6CF-48C9-A2F7-59D2A0422C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="115">
   <si>
     <t>players</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
   </si>
 </sst>
 </file>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1129"/>
+  <dimension ref="A1:O1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
-      <selection activeCell="F1123" sqref="F1123"/>
+    <sheetView tabSelected="1" topLeftCell="A1129" workbookViewId="0">
+      <selection activeCell="K1135" sqref="K1135:K1153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35852,7 +35858,7 @@
         <v>107</v>
       </c>
       <c r="K1075" s="10" t="str">
-        <f t="shared" ref="K1075:K1129" si="30">IF(OR(OR(AND(OR(A1075=B1075,A1075=C1075,A1075=D1075,B1075=C1075,B1075=D1075,C1075=D1075),OR(A1075&lt;&gt;"",D1075&lt;&gt;"")),H1075&gt;MAX(F1075:G1075),B1075=C1075),OR(AND(ISBLANK(A1075)=FALSE,ISNA(VLOOKUP(A1075,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1075,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1075,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1075)=FALSE,ISNA(VLOOKUP(D1075,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1075:D1075)=1,COUNTBLANK(A1075:D1075)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K1075:K1138" si="30">IF(OR(OR(AND(OR(A1075=B1075,A1075=C1075,A1075=D1075,B1075=C1075,B1075=D1075,C1075=D1075),OR(A1075&lt;&gt;"",D1075&lt;&gt;"")),H1075&gt;MAX(F1075:G1075),B1075=C1075),OR(AND(ISBLANK(A1075)=FALSE,ISNA(VLOOKUP(A1075,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1075,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1075,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1075)=FALSE,ISNA(VLOOKUP(D1075,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1075:D1075)=1,COUNTBLANK(A1075:D1075)=3))),"ERREUR","")</f>
         <v/>
       </c>
     </row>
@@ -37152,7 +37158,7 @@
         <v>11</v>
       </c>
       <c r="E1122" s="1">
-        <f t="shared" ref="E1122:E1129" si="31">IF(F1122&gt;G1122,1,0)</f>
+        <f t="shared" ref="E1122:E1153" si="31">IF(F1122&gt;G1122,1,0)</f>
         <v>1</v>
       </c>
       <c r="F1122" s="5">
@@ -37365,6 +37371,678 @@
       </c>
       <c r="K1129" s="10" t="str">
         <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1130" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1130" s="5">
+        <v>12</v>
+      </c>
+      <c r="G1130" s="5">
+        <v>10</v>
+      </c>
+      <c r="H1130" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1130" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1131" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1131" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1131" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1131" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1131" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1132" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1132" s="5">
+        <v>12</v>
+      </c>
+      <c r="G1132" s="5">
+        <v>10</v>
+      </c>
+      <c r="H1132" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1132" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1133" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1133" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1133" s="5">
+        <v>12</v>
+      </c>
+      <c r="G1133" s="5">
+        <v>10</v>
+      </c>
+      <c r="H1133" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1133" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1134" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1134" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1134" s="5">
+        <v>12</v>
+      </c>
+      <c r="G1134" s="5">
+        <v>10</v>
+      </c>
+      <c r="H1134" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1134" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1135" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1135" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1135" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1135" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1135" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1135" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1135" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1136" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1136" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1136" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1136" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1136" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1137" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1137" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1137" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1137" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1137" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1137" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1137" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1137" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1137" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1138" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1138" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1138" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1138" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1138" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1138" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1138" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1138" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1139" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1139" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1139" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1139" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1139" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1139" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1139" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1139" s="10" t="str">
+        <f t="shared" ref="K1139:K1153" si="32">IF(OR(OR(AND(OR(A1139=B1139,A1139=C1139,A1139=D1139,B1139=C1139,B1139=D1139,C1139=D1139),OR(A1139&lt;&gt;"",D1139&lt;&gt;"")),H1139&gt;MAX(F1139:G1139),B1139=C1139),OR(AND(ISBLANK(A1139)=FALSE,ISNA(VLOOKUP(A1139,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B1139,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C1139,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D1139)=FALSE,ISNA(VLOOKUP(D1139,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A1139:D1139)=1,COUNTBLANK(A1139:D1139)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1140" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1140" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1140" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1140" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1140" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1140" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1141" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1141" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1141" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1141" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1141" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1141" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1141" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1142" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1142" s="5">
+        <v>13</v>
+      </c>
+      <c r="G1142" s="5">
+        <v>11</v>
+      </c>
+      <c r="H1142" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1142" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1142" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1143" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1143" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1143" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1143" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1143" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1143" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1143" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1144" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1144" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1144" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1144" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1144" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1144" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1145" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1145" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1145" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1145" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1145" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1145" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1146" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1146" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1146" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1146" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1146" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1147" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1147" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1147" s="5">
+        <v>8</v>
+      </c>
+      <c r="H1147" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1147" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1147" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1148" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1148" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1148" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1148" s="5">
+        <v>9</v>
+      </c>
+      <c r="H1148" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1148" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1148" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1149" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1149" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1149" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1149" s="5">
+        <v>17</v>
+      </c>
+      <c r="G1149" s="5">
+        <v>15</v>
+      </c>
+      <c r="H1149" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1149" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1149" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1150" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1150" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1150" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1150" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1150" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1150" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1150" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1150" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1151" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1151" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1151" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1151" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1151" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1151" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1151" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1151" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1152" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1152" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1152" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1152" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1152" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1152" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1152" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1153" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1153" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="F1153" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1153" s="5">
+        <v>5</v>
+      </c>
+      <c r="H1153" s="1">
+        <v>11</v>
+      </c>
+      <c r="I1153" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1153" s="10" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
